--- a/2024_MXY_账本_2月收支.xlsx
+++ b/2024_MXY_账本_2月收支.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m30029125\test\leetcode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="4245" yWindow="645" windowWidth="28035" windowHeight="15795"/>
   </bookViews>
   <sheets>
-    <sheet name="2月收支" sheetId="2" r:id="rId5"/>
+    <sheet name="2月收支" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,39 +30,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>收支</t>
+  </si>
+  <si>
+    <t>1月报销</t>
+  </si>
+  <si>
+    <t>共同支出</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>大润发</t>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>午饭</t>
+  </si>
+  <si>
+    <t>个人用餐</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>晚饭</t>
+  </si>
+  <si>
+    <t>早饭</t>
+  </si>
+  <si>
+    <t>马桶刷</t>
+  </si>
+  <si>
+    <t>红包-老妈</t>
+  </si>
+  <si>
+    <t>红包</t>
+  </si>
+  <si>
+    <t>早饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海绵擦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q崽看病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8瓶椰汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3瓶NFC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碘伏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底捞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资上交</t>
+  </si>
+  <si>
+    <t>工资上交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资上交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>lyz肌醇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/MM/dd HH:mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
@@ -84,24 +223,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -408,233 +543,595 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="7.416666666666666"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8.25"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="12.857142857142858" r="1">
-      <c r="A1" t="str">
-        <v>备注</v>
-      </c>
-      <c r="B1" t="str">
-        <v>日期</v>
-      </c>
-      <c r="C1" t="str">
-        <v>分类</v>
-      </c>
-      <c r="D1" t="str">
-        <v>金额</v>
-      </c>
-      <c r="E1" t="str">
-        <v>收支</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="12.857142857142858" r="2">
-      <c r="A2" t="str">
-        <v>1月报销</v>
+    <row r="1" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>45325.65555555555</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <v>共同支出</v>
+        <v>45325.655555555553</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1355</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <v>收入</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="12.857142857142858" r="3">
-      <c r="A3" t="str">
-        <v>大润发</v>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>45325.55902777778</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <v>共同支出</v>
+        <v>45325.559027777781</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D3">
         <v>5.3</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <v>支出</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="12.857142857142858" r="4">
-      <c r="A4" t="str">
-        <v>午饭</v>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>45325.46805555555</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <v>共同支出</v>
+        <v>45325.468055555553</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D4">
         <v>47</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <v>支出</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="12.857142857142858" r="5">
-      <c r="A5" t="str">
-        <v>午饭</v>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>45324.51458333333</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <v>个人用餐</v>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <v>支出</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="12.857142857142858" r="6">
-      <c r="A6" t="str">
-        <v>饮料</v>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>45324.347916666666</v>
       </c>
-      <c r="C6" s="2" t="str">
-        <v>饮料</v>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>8.2</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <v>支出</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="12.857142857142858" r="7">
-      <c r="A7" t="str">
-        <v>晚饭</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>45323.74930555555</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <v>个人用餐</v>
+        <v>45323.749305555553</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <v>支出</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="12.857142857142858" r="8">
-      <c r="A8" t="str">
-        <v>午饭</v>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>45323.513194444444</v>
       </c>
-      <c r="C8" s="2" t="str">
-        <v>个人用餐</v>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <v>支出</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="12.857142857142858" r="9">
-      <c r="A9" t="str">
-        <v>早饭</v>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>45323.36597222222</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <v>个人用餐</v>
+        <v>45323.365972222222</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D9">
         <v>5.5</v>
       </c>
-      <c r="E9" s="2" t="str">
-        <v>支出</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="12.857142857142858" r="10">
-      <c r="A10" t="str">
-        <v>马桶刷</v>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>45325.60138888889</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <v>共同支出</v>
+        <v>45325.601388888892</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D10">
         <v>35.58</v>
       </c>
-      <c r="E10" s="2" t="str">
-        <v>支出</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="12.857142857142858" r="11">
-      <c r="A11" t="str">
-        <v>红包-老妈</v>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>45325.404861111114</v>
       </c>
-      <c r="C11" s="2" t="str">
-        <v>红包</v>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D11">
         <v>66</v>
       </c>
-      <c r="E11" s="2" t="str">
-        <v>支出</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="12.857142857142858" r="12">
-      <c r="A12" t="str">
-        <v>红包-老妈</v>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>45325.40416666667</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <v>红包</v>
+        <v>45325.404166666667</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D12">
         <v>188</v>
       </c>
-      <c r="E12" s="2" t="str">
-        <v>支出</v>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45340.366666666669</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45339.506249999999</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45338.577777777777</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>11.9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45338.416666666664</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>21.8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45338.377083333333</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45337.505555555559</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>230</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45335.411805555559</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45335.402777777781</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>54.5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45335.361111111109</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>4.5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45334.408333333333</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>6.9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45332.783333333333</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>507</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45332.717361111114</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>18225</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45331.425694444442</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>22781.74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45331.414583333331</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>278.98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45331.399305555555</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45330.501388888886</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45329.788194444445</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45329.509027777778</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45328.944444444445</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>257.98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45328.504166666666</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45327.936805555553</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" sqref="C2:C12" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C2:C33">
       <formula1>"共同支出,个人用餐,个人物品,红包,零食,交通,饮料,娱乐,工资上交,工资"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" sqref="E2:E12" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="E2:E25">
       <formula1>"支出,收入"</formula1>
     </dataValidation>
   </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>